--- a/QuiescencePavloviaParticipants.xlsx
+++ b/QuiescencePavloviaParticipants.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="27">
   <si>
     <t>Participant Number</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>Comments</t>
+  </si>
+  <si>
+    <t>Break</t>
   </si>
   <si>
     <t>Female</t>
@@ -95,7 +98,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -110,6 +113,7 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font/>
   </fonts>
   <fills count="3">
     <fill>
@@ -131,7 +135,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -143,6 +147,12 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -400,6 +410,9 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="3">
@@ -409,22 +422,25 @@
         <v>13404.0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="3">
         <v>24.0</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2" s="3">
         <v>1.0</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="J2" s="4">
+        <v>4.8</v>
       </c>
     </row>
     <row r="3">
@@ -435,22 +451,25 @@
         <v>13445.0</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" s="3">
         <v>19.0</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G3" s="3">
         <v>0.0</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="J3" s="5">
+        <v>32.43</v>
       </c>
     </row>
     <row r="4">
@@ -461,22 +480,25 @@
         <v>13330.0</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" s="3">
         <v>19.0</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G4" s="3">
         <v>0.0</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="J4" s="5">
+        <v>44.73</v>
       </c>
     </row>
     <row r="5">
@@ -487,22 +509,25 @@
         <v>13439.0</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" s="3">
         <v>19.0</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G5" s="3">
         <v>0.0</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="J5" s="5">
+        <v>9.12</v>
       </c>
     </row>
     <row r="6">
@@ -513,22 +538,25 @@
         <v>13449.0</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" s="3">
         <v>19.0</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G6" s="3">
         <v>0.0</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="J6" s="5">
+        <v>65.31</v>
       </c>
     </row>
     <row r="7">
@@ -539,22 +567,25 @@
         <v>13189.0</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" s="3">
         <v>20.0</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G7" s="3">
         <v>1.0</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="J7" s="5">
+        <v>1.61</v>
       </c>
     </row>
     <row r="8">
@@ -565,22 +596,25 @@
         <v>13366.0</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" s="3">
         <v>19.0</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G8" s="3">
         <v>1.0</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="J8" s="5">
+        <v>13.99</v>
       </c>
     </row>
     <row r="9">
@@ -591,22 +625,25 @@
         <v>12727.0</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" s="3">
         <v>21.0</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G9" s="3">
         <v>1.0</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="J9" s="5">
+        <v>14.55</v>
       </c>
     </row>
     <row r="10">
@@ -617,22 +654,25 @@
         <v>13196.0</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" s="3">
         <v>19.0</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G10" s="3">
         <v>0.0</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="J10" s="5">
+        <v>7.62</v>
       </c>
     </row>
     <row r="11">
@@ -643,22 +683,25 @@
         <v>13188.0</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" s="3">
         <v>19.0</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G11" s="3">
         <v>0.0</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="J11" s="5">
+        <v>102.62</v>
       </c>
     </row>
     <row r="12">
@@ -669,22 +712,25 @@
         <v>13259.0</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12" s="3">
         <v>20.0</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G12" s="3">
         <v>1.0</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="J12" s="5">
+        <v>3.45</v>
       </c>
     </row>
     <row r="13">
@@ -695,22 +741,25 @@
         <v>13241.0</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13" s="3">
         <v>19.0</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G13" s="3">
         <v>0.0</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="J13" s="5">
+        <v>0.81</v>
       </c>
     </row>
     <row r="14">
@@ -721,22 +770,25 @@
         <v>13298.0</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" s="3">
         <v>19.0</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G14" s="3">
         <v>0.0</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="J14" s="5">
+        <v>1.42</v>
       </c>
     </row>
     <row r="15">
@@ -747,22 +799,25 @@
         <v>13451.0</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D15" s="3">
         <v>20.0</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G15" s="3">
         <v>0.0</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="J15" s="5">
+        <v>13.67</v>
       </c>
     </row>
     <row r="16">
@@ -773,22 +828,25 @@
         <v>12746.0</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" s="3">
         <v>20.0</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G16" s="3">
         <v>0.0</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="J16" s="5">
+        <v>0.15</v>
       </c>
     </row>
     <row r="17">
@@ -799,22 +857,25 @@
         <v>12842.0</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" s="3">
         <v>21.0</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G17" s="3">
         <v>0.0</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="J17" s="5">
+        <v>11.16</v>
       </c>
     </row>
     <row r="18">
@@ -825,22 +886,25 @@
         <v>13230.0</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" s="3">
         <v>19.0</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G18" s="3">
         <v>0.0</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="J18" s="5">
+        <v>4.08</v>
       </c>
     </row>
     <row r="19">
@@ -851,22 +915,25 @@
         <v>13280.0</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" s="3">
         <v>19.0</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G19" s="3">
         <v>1.0</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="J19" s="5">
+        <v>2.73</v>
       </c>
     </row>
     <row r="20">
@@ -877,25 +944,25 @@
         <v>13384.0</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D20" s="3">
         <v>19.0</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G20" s="3">
         <v>1.0</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="21">
@@ -906,22 +973,25 @@
         <v>13312.0</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" s="3">
         <v>19.0</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G21" s="3">
         <v>0.0</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="J21" s="5">
+        <v>2.57</v>
       </c>
     </row>
     <row r="22">
@@ -932,22 +1002,25 @@
         <v>13448.0</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" s="3">
         <v>19.0</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G22" s="3">
         <v>0.0</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="J22" s="5">
+        <v>1.61</v>
       </c>
     </row>
     <row r="23">
@@ -958,22 +1031,25 @@
         <v>13389.0</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" s="3">
         <v>20.0</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G23" s="3">
         <v>1.0</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="J23" s="5">
+        <v>24.36</v>
       </c>
     </row>
     <row r="24">
@@ -984,25 +1060,25 @@
         <v>13364.0</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" s="3">
         <v>20.0</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G24" s="3">
         <v>1.0</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="25">
@@ -1013,22 +1089,25 @@
         <v>13438.0</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" s="3">
         <v>19.0</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G25" s="3">
         <v>1.0</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="J25" s="5">
+        <v>11.62</v>
       </c>
     </row>
     <row r="26">
@@ -1039,22 +1118,25 @@
         <v>13441.0</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" s="3">
         <v>20.0</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G26" s="3">
         <v>0.0</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="J26" s="5">
+        <v>11.8</v>
       </c>
     </row>
     <row r="27">
@@ -1065,22 +1147,25 @@
         <v>13224.0</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" s="3">
         <v>20.0</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G27" s="3">
         <v>1.0</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="J27" s="5">
+        <v>30.41</v>
       </c>
     </row>
     <row r="28">
@@ -1091,22 +1176,25 @@
         <v>13316.0</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" s="3">
         <v>19.0</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G28" s="3">
         <v>0.0</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="J28" s="5">
+        <v>256.15</v>
       </c>
     </row>
     <row r="29">
@@ -1117,22 +1205,25 @@
         <v>13254.0</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" s="3">
         <v>19.0</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G29" s="3">
         <v>0.0</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="J29" s="5">
+        <v>11.44</v>
       </c>
     </row>
     <row r="30">
@@ -1143,22 +1234,25 @@
         <v>13237.0</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" s="3">
         <v>19.0</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G30" s="3">
         <v>1.0</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="J30" s="5">
+        <v>25.55</v>
       </c>
     </row>
     <row r="31">
@@ -1169,22 +1263,25 @@
         <v>13324.0</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" s="3">
         <v>19.0</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G31" s="3">
         <v>0.0</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="J31" s="5">
+        <v>13.16</v>
       </c>
     </row>
     <row r="32">
@@ -1195,22 +1292,25 @@
         <v>13269.0</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" s="3">
         <v>19.0</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G32" s="3">
         <v>0.0</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="J32" s="5">
+        <v>1.74</v>
       </c>
     </row>
     <row r="33">
@@ -1221,22 +1321,25 @@
         <v>13319.0</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" s="3">
         <v>36.0</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G33" s="3">
         <v>0.0</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="J33" s="5">
+        <v>5.26</v>
       </c>
     </row>
     <row r="34">
@@ -1247,22 +1350,25 @@
         <v>13192.0</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D34" s="3">
         <v>19.0</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G34" s="3">
         <v>0.0</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="J34" s="5">
+        <v>9.51</v>
       </c>
     </row>
     <row r="35">
@@ -1273,22 +1379,25 @@
         <v>13334.0</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" s="3">
         <v>20.0</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G35" s="3">
         <v>1.0</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="J35" s="5">
+        <v>2.82</v>
       </c>
     </row>
     <row r="36">
@@ -1299,22 +1408,25 @@
         <v>12724.0</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" s="3">
         <v>20.0</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G36" s="3">
         <v>0.0</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="J36" s="5">
+        <v>3.93</v>
       </c>
     </row>
     <row r="37">
@@ -1325,22 +1437,25 @@
         <v>12430.0</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" s="3">
         <v>21.0</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G37" s="3">
         <v>0.0</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="J37" s="5">
+        <v>5.72</v>
       </c>
     </row>
     <row r="38">
@@ -1351,22 +1466,25 @@
         <v>13242.0</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" s="3">
         <v>19.0</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G38" s="3">
         <v>0.0</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="J38" s="5">
+        <v>10.34</v>
       </c>
     </row>
     <row r="39">
@@ -1377,22 +1495,25 @@
         <v>13295.0</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" s="3">
         <v>19.0</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G39" s="3">
         <v>0.0</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="J39" s="5">
+        <v>2.87</v>
       </c>
     </row>
     <row r="40">
@@ -1403,22 +1524,25 @@
         <v>13315.0</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" s="3">
         <v>20.0</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G40" s="3">
         <v>0.0</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="J40" s="5">
+        <v>2.46</v>
       </c>
     </row>
     <row r="41">
@@ -1429,22 +1553,25 @@
         <v>12941.0</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" s="3">
         <v>20.0</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G41" s="3">
         <v>0.0</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="J41" s="5">
+        <v>0.0</v>
       </c>
     </row>
     <row r="42">
@@ -1452,25 +1579,28 @@
         <v>41.0</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" s="3">
         <v>19.0</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G42" s="3">
         <v>0.0</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="J42" s="5">
+        <v>9.98</v>
       </c>
     </row>
     <row r="43">
@@ -1481,22 +1611,25 @@
         <v>13285.0</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" s="3">
         <v>19.0</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G43" s="3">
         <v>0.0</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="J43" s="5">
+        <v>8.09</v>
       </c>
     </row>
     <row r="44">
@@ -1507,22 +1640,25 @@
         <v>12840.0</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D44" s="3">
         <v>20.0</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G44" s="3">
         <v>0.0</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="J44" s="5">
+        <v>5.67</v>
       </c>
     </row>
     <row r="45">
@@ -1533,22 +1669,25 @@
         <v>13300.0</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" s="3">
         <v>18.0</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G45" s="3">
         <v>1.0</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="J45" s="5">
+        <v>7.83</v>
       </c>
     </row>
     <row r="46">
@@ -1559,22 +1698,25 @@
         <v>13905.0</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" s="3">
         <v>19.0</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G46" s="3">
         <v>0.0</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="J46" s="5">
+        <v>37.43</v>
       </c>
     </row>
     <row r="47">
@@ -1585,22 +1727,25 @@
         <v>13360.0</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" s="3">
         <v>20.0</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G47" s="3">
         <v>0.0</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="J47" s="5">
+        <v>14.77</v>
       </c>
     </row>
     <row r="48">
@@ -1611,22 +1756,25 @@
         <v>13426.0</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" s="3">
         <v>21.0</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G48" s="3">
         <v>1.0</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="J48" s="5">
+        <v>18.36</v>
       </c>
     </row>
     <row r="49">
@@ -1637,22 +1785,25 @@
         <v>13276.0</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" s="3">
         <v>40.0</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G49" s="3">
         <v>0.0</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="J49" s="5">
+        <v>14.36</v>
       </c>
     </row>
     <row r="50">
@@ -1663,22 +1814,25 @@
         <v>13877.0</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D50" s="3">
         <v>19.0</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G50" s="3">
         <v>0.0</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="J50" s="5">
+        <v>8.83</v>
       </c>
     </row>
     <row r="51">
@@ -1689,22 +1843,25 @@
         <v>13228.0</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" s="3">
         <v>19.0</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G51" s="3">
         <v>0.0</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="J51" s="5">
+        <v>13.495</v>
       </c>
     </row>
     <row r="52">
@@ -1715,22 +1872,25 @@
         <v>13221.0</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" s="3">
         <v>19.0</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G52" s="3">
         <v>1.0</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="J52" s="5">
+        <v>23.35</v>
       </c>
     </row>
     <row r="53">
@@ -1741,22 +1901,25 @@
         <v>13197.0</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" s="3">
         <v>19.0</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G53" s="3">
         <v>1.0</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="J53" s="5">
+        <v>136.34</v>
       </c>
     </row>
     <row r="54">
@@ -1767,22 +1930,25 @@
         <v>13401.0</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" s="3">
         <v>19.0</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G54" s="3">
         <v>0.0</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="J54" s="5">
+        <v>18.29</v>
       </c>
     </row>
     <row r="55">
@@ -1793,22 +1959,25 @@
         <v>14000.0</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D55" s="3">
         <v>20.0</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G55" s="3">
         <v>1.0</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="J55" s="5">
+        <v>3.8</v>
       </c>
     </row>
     <row r="56">
@@ -1819,22 +1988,25 @@
         <v>13322.0</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" s="3">
         <v>29.0</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G56" s="3">
         <v>0.0</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="J56" s="5">
+        <v>18.73</v>
       </c>
     </row>
     <row r="57">
@@ -1845,22 +2017,25 @@
         <v>13245.0</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" s="3">
         <v>20.0</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G57" s="3">
         <v>0.0</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="J57" s="5">
+        <v>8.95</v>
       </c>
     </row>
     <row r="58">
@@ -1871,22 +2046,25 @@
         <v>14106.0</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" s="3">
         <v>28.0</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G58" s="3">
         <v>0.0</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="J58" s="5">
+        <v>2.15</v>
       </c>
     </row>
     <row r="59">
@@ -1897,22 +2075,25 @@
         <v>13176.0</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" s="3">
         <v>23.0</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G59" s="3">
         <v>1.0</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="J59" s="5">
+        <v>21.21</v>
       </c>
     </row>
     <row r="60">
@@ -1923,22 +2104,25 @@
         <v>13274.0</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" s="3">
         <v>19.0</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G60" s="3">
         <v>0.0</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="J60" s="5">
+        <v>24.14</v>
       </c>
     </row>
     <row r="61">
@@ -1949,22 +2133,25 @@
         <v>13395.0</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D61" s="3">
         <v>22.0</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G61" s="3">
         <v>0.0</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="J61" s="5">
+        <v>17.07</v>
       </c>
     </row>
     <row r="62">
@@ -1972,25 +2159,28 @@
         <v>61.0</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" s="3">
         <v>19.0</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G62" s="3">
         <v>0.0</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="J62" s="5">
+        <v>231.27</v>
       </c>
     </row>
     <row r="63">
@@ -2001,22 +2191,25 @@
         <v>13191.0</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" s="3">
         <v>19.0</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G63" s="3">
         <v>0.0</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="J63" s="5">
+        <v>13.12</v>
       </c>
     </row>
     <row r="64">
@@ -2027,22 +2220,25 @@
         <v>12733.0</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" s="3">
         <v>22.0</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G64" s="3">
         <v>0.0</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="J64" s="5">
+        <v>50.73</v>
       </c>
     </row>
     <row r="65">
@@ -2053,22 +2249,25 @@
         <v>13208.0</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" s="3">
         <v>20.0</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G65" s="3">
         <v>0.0</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="J65" s="5">
+        <v>4.7</v>
       </c>
     </row>
     <row r="66">
@@ -2079,22 +2278,25 @@
         <v>13375.0</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" s="3">
         <v>21.0</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G66" s="3">
         <v>0.0</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="J66" s="5">
+        <v>17.08</v>
       </c>
     </row>
     <row r="67">
@@ -2102,25 +2304,28 @@
         <v>66.0</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D67" s="3">
         <v>20.0</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G67" s="3">
         <v>0.0</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="J67" s="5">
+        <v>8.54</v>
       </c>
     </row>
     <row r="68">
@@ -2131,22 +2336,25 @@
         <v>14127.0</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" s="3">
         <v>18.0</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G68" s="3">
         <v>0.0</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="J68" s="5">
+        <v>83.05</v>
       </c>
     </row>
     <row r="69">
@@ -2157,22 +2365,25 @@
         <v>13325.0</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" s="3">
         <v>19.0</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G69" s="3">
         <v>0.0</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="J69" s="5">
+        <v>28.76</v>
       </c>
     </row>
     <row r="70">
@@ -2183,22 +2394,25 @@
         <v>12720.0</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D70" s="3">
         <v>20.0</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G70" s="3">
         <v>0.0</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="J70" s="5">
+        <v>9.62</v>
       </c>
     </row>
     <row r="71">
@@ -2209,22 +2423,25 @@
         <v>13212.0</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D71" s="3">
         <v>20.0</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G71" s="3">
         <v>1.0</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="J71" s="5">
+        <v>12.8</v>
       </c>
     </row>
     <row r="72">
@@ -2235,22 +2452,25 @@
         <v>13995.0</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" s="3">
         <v>18.0</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G72" s="3">
         <v>1.0</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="J72" s="5">
+        <v>90.33</v>
       </c>
     </row>
     <row r="73">
@@ -2261,22 +2481,25 @@
         <v>13249.0</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" s="3">
         <v>19.0</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G73" s="3">
         <v>0.0</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="J73" s="5">
+        <v>15.17</v>
       </c>
     </row>
     <row r="74">
@@ -2287,22 +2510,25 @@
         <v>13368.0</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" s="3">
         <v>19.0</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G74" s="3">
         <v>0.0</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="J74" s="5">
+        <v>10.96</v>
       </c>
     </row>
     <row r="75">
@@ -2313,22 +2539,25 @@
         <v>13983.0</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" s="3">
         <v>19.0</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G75" s="3">
         <v>0.0</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="J75" s="5">
+        <v>8.77</v>
       </c>
     </row>
     <row r="76">
@@ -2339,22 +2568,25 @@
         <v>13386.0</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" s="3">
         <v>20.0</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G76" s="3">
         <v>0.0</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="J76" s="5">
+        <v>27.55</v>
       </c>
     </row>
     <row r="77">
@@ -2365,22 +2597,25 @@
         <v>13966.0</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" s="3">
         <v>19.0</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G77" s="3">
         <v>0.0</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="J77" s="5">
+        <v>7.35</v>
       </c>
     </row>
     <row r="78">
@@ -2391,22 +2626,25 @@
         <v>13894.0</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" s="3">
         <v>18.0</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G78" s="3">
         <v>0.0</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="J78" s="5">
+        <v>7.89</v>
       </c>
     </row>
     <row r="79">
@@ -2417,22 +2655,25 @@
         <v>13200.0</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" s="3">
         <v>19.0</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G79" s="3">
         <v>0.0</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="J79" s="5">
+        <v>21.22</v>
       </c>
     </row>
     <row r="80">
@@ -2443,22 +2684,25 @@
         <v>14051.0</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" s="3">
         <v>18.0</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G80" s="3">
         <v>0.0</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="J80" s="5">
+        <v>1.87</v>
       </c>
     </row>
     <row r="81">
@@ -2469,22 +2713,25 @@
         <v>12914.0</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" s="3">
         <v>20.0</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G81" s="3">
         <v>1.0</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="J81" s="5">
+        <v>9.05</v>
       </c>
     </row>
     <row r="82">
@@ -2495,22 +2742,25 @@
         <v>13917.0</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" s="3">
         <v>18.0</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G82" s="3">
         <v>0.0</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="J82" s="5">
+        <v>10.99</v>
       </c>
     </row>
     <row r="83">
@@ -2521,22 +2771,25 @@
         <v>14120.0</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" s="3">
         <v>19.0</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G83" s="3">
         <v>1.0</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="J83" s="5">
+        <v>26.65</v>
       </c>
     </row>
     <row r="84">
@@ -2547,22 +2800,25 @@
         <v>13209.0</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" s="3">
         <v>19.0</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G84" s="3">
         <v>1.0</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="J84" s="5">
+        <v>8.58</v>
       </c>
     </row>
     <row r="85">
@@ -2573,22 +2829,25 @@
         <v>14036.0</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" s="3">
         <v>18.0</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G85" s="3">
         <v>0.0</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="J85" s="5">
+        <v>14.07</v>
       </c>
     </row>
     <row r="86">
@@ -2599,22 +2858,25 @@
         <v>13363.0</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" s="3">
         <v>19.0</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G86" s="3">
         <v>0.0</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="J86" s="5">
+        <v>12.73</v>
       </c>
     </row>
     <row r="87">
@@ -2625,22 +2887,25 @@
         <v>13281.0</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" s="3">
         <v>20.0</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G87" s="3">
         <v>0.0</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="J87" s="5">
+        <v>42.05</v>
       </c>
     </row>
     <row r="88">
@@ -2651,22 +2916,25 @@
         <v>13252.0</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" s="3">
         <v>19.0</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G88" s="3">
         <v>0.0</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="J88" s="5">
+        <v>32.87</v>
       </c>
     </row>
     <row r="89">
@@ -2677,22 +2945,25 @@
         <v>13311.0</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D89" s="3">
         <v>61.0</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G89" s="3">
         <v>0.0</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="J89" s="5">
+        <v>9.95</v>
       </c>
     </row>
     <row r="90">
@@ -2703,22 +2974,25 @@
         <v>13202.0</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D90" s="3">
         <v>19.0</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G90" s="3">
         <v>1.0</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="J90" s="5">
+        <v>5.61</v>
       </c>
     </row>
     <row r="91">
@@ -2729,22 +3003,25 @@
         <v>14047.0</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" s="3">
         <v>20.0</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G91" s="3">
         <v>0.0</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="J91" s="5">
+        <v>101.04</v>
       </c>
     </row>
     <row r="92">
@@ -2755,22 +3032,25 @@
         <v>13424.0</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" s="3">
         <v>19.0</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G92" s="3">
         <v>0.0</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="J92" s="5">
+        <v>3.2</v>
       </c>
     </row>
     <row r="93">
@@ -2781,22 +3061,25 @@
         <v>13391.0</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D93" s="3">
         <v>20.0</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G93" s="3">
         <v>0.0</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="J93" s="5">
+        <v>23.63</v>
       </c>
     </row>
     <row r="94">
@@ -2807,22 +3090,25 @@
         <v>13338.0</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" s="3">
         <v>19.0</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G94" s="3">
         <v>1.0</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="J94" s="5">
+        <v>15.66</v>
       </c>
     </row>
     <row r="95">
@@ -2833,22 +3119,25 @@
         <v>13217.0</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" s="3">
         <v>20.0</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G95" s="3">
         <v>0.0</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="J95" s="5">
+        <v>647.38</v>
       </c>
     </row>
     <row r="96">
@@ -2859,22 +3148,25 @@
         <v>13297.0</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" s="3">
         <v>20.0</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G96" s="3">
         <v>0.0</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="J96" s="5">
+        <v>3.89</v>
       </c>
     </row>
     <row r="97">
@@ -2885,22 +3177,25 @@
         <v>12812.0</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D97" s="3">
         <v>21.0</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G97" s="3">
         <v>0.0</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="J97" s="5">
+        <v>5.58</v>
       </c>
     </row>
     <row r="98">
@@ -2911,22 +3206,25 @@
         <v>13415.0</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" s="3">
         <v>19.0</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G98" s="3">
         <v>0.0</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="J98" s="5">
+        <v>46.96</v>
       </c>
     </row>
     <row r="99">
@@ -2937,22 +3235,25 @@
         <v>13348.0</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" s="3">
         <v>19.0</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G99" s="3">
         <v>0.0</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="J99" s="5">
+        <v>13.02</v>
       </c>
     </row>
     <row r="100">
@@ -2963,22 +3264,25 @@
         <v>13948.0</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" s="3">
         <v>20.0</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G100" s="3">
         <v>1.0</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="J100" s="5">
+        <v>12.31</v>
       </c>
     </row>
     <row r="101">
@@ -2989,96 +3293,102 @@
         <v>14114.0</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" s="3">
         <v>52.0</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G101" s="3">
         <v>1.0</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="J101" s="5">
+        <v>24.2</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="5"/>
-      <c r="B102" s="5"/>
-      <c r="C102" s="5"/>
-      <c r="D102" s="5"/>
-      <c r="E102" s="5"/>
-      <c r="F102" s="5"/>
-      <c r="G102" s="5"/>
-      <c r="H102" s="5"/>
+      <c r="A102" s="7"/>
+      <c r="B102" s="7"/>
+      <c r="C102" s="7"/>
+      <c r="D102" s="7"/>
+      <c r="E102" s="7"/>
+      <c r="F102" s="7"/>
+      <c r="G102" s="7"/>
+      <c r="H102" s="7"/>
     </row>
     <row r="103">
-      <c r="A103" s="5"/>
-      <c r="B103" s="5"/>
-      <c r="C103" s="5"/>
-      <c r="D103" s="5"/>
-      <c r="E103" s="5"/>
-      <c r="F103" s="5"/>
-      <c r="G103" s="5"/>
-      <c r="H103" s="5"/>
+      <c r="A103" s="7"/>
+      <c r="B103" s="7"/>
+      <c r="C103" s="7"/>
+      <c r="D103" s="7"/>
+      <c r="E103" s="7"/>
+      <c r="F103" s="7"/>
+      <c r="G103" s="7"/>
+      <c r="H103" s="7"/>
     </row>
     <row r="104">
-      <c r="A104" s="5"/>
-      <c r="B104" s="5"/>
-      <c r="C104" s="5"/>
-      <c r="D104" s="5">
+      <c r="A104" s="7"/>
+      <c r="B104" s="7"/>
+      <c r="C104" s="7"/>
+      <c r="D104" s="7">
         <f>AVERAGE(D2:D101)</f>
         <v>20.8</v>
       </c>
-      <c r="E104" s="5"/>
-      <c r="F104" s="5"/>
-      <c r="G104" s="5"/>
-      <c r="H104" s="5"/>
+      <c r="E104" s="7"/>
+      <c r="F104" s="7"/>
+      <c r="G104" s="7"/>
+      <c r="H104" s="7"/>
     </row>
     <row r="105">
-      <c r="A105" s="5"/>
-      <c r="B105" s="5"/>
-      <c r="C105" s="5"/>
-      <c r="D105" s="5"/>
-      <c r="E105" s="5"/>
-      <c r="F105" s="5"/>
-      <c r="G105" s="5"/>
-      <c r="H105" s="5"/>
+      <c r="A105" s="7"/>
+      <c r="B105" s="7"/>
+      <c r="C105" s="7"/>
+      <c r="D105" s="7">
+        <f>STDEV(D2:D101)</f>
+        <v>5.994947368</v>
+      </c>
+      <c r="E105" s="7"/>
+      <c r="F105" s="7"/>
+      <c r="G105" s="7"/>
+      <c r="H105" s="7"/>
     </row>
     <row r="106">
-      <c r="A106" s="5"/>
-      <c r="B106" s="5"/>
-      <c r="C106" s="5"/>
-      <c r="D106" s="5"/>
-      <c r="E106" s="5"/>
-      <c r="F106" s="5"/>
-      <c r="G106" s="5"/>
-      <c r="H106" s="5"/>
+      <c r="A106" s="7"/>
+      <c r="B106" s="7"/>
+      <c r="C106" s="7"/>
+      <c r="D106" s="7"/>
+      <c r="E106" s="7"/>
+      <c r="F106" s="7"/>
+      <c r="G106" s="7"/>
+      <c r="H106" s="7"/>
     </row>
     <row r="107">
-      <c r="A107" s="5"/>
-      <c r="B107" s="5"/>
-      <c r="C107" s="5"/>
-      <c r="D107" s="5"/>
-      <c r="E107" s="5"/>
-      <c r="F107" s="5"/>
-      <c r="G107" s="5"/>
-      <c r="H107" s="5"/>
+      <c r="A107" s="7"/>
+      <c r="B107" s="7"/>
+      <c r="C107" s="7"/>
+      <c r="D107" s="7"/>
+      <c r="E107" s="7"/>
+      <c r="F107" s="7"/>
+      <c r="G107" s="7"/>
+      <c r="H107" s="7"/>
     </row>
     <row r="108">
-      <c r="A108" s="5"/>
-      <c r="B108" s="5"/>
-      <c r="C108" s="5"/>
-      <c r="D108" s="5"/>
-      <c r="E108" s="5"/>
-      <c r="F108" s="5"/>
-      <c r="G108" s="5"/>
-      <c r="H108" s="5"/>
+      <c r="A108" s="7"/>
+      <c r="B108" s="7"/>
+      <c r="C108" s="7"/>
+      <c r="D108" s="7"/>
+      <c r="E108" s="7"/>
+      <c r="F108" s="7"/>
+      <c r="G108" s="7"/>
+      <c r="H108" s="7"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
